--- a/Heating_Element_Cost/HeatingElementCostEstimate.xlsx
+++ b/Heating_Element_Cost/HeatingElementCostEstimate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Heating_Element_Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{2AB1BE43-61F4-4C7B-8CB2-E9B8FC65C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AA57D1-5B8D-46A4-8E93-AB6C76223A12}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{2AB1BE43-61F4-4C7B-8CB2-E9B8FC65C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4E7FF81-6C75-4EE8-BDE2-49C8E5D42E0F}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{CB1A8A0D-9D97-4379-8165-4BCA07248889}"/>
+    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{CB1A8A0D-9D97-4379-8165-4BCA07248889}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,6 +434,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,7 +1049,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="4">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
@@ -1060,7 +1064,7 @@
       </c>
       <c r="C15">
         <f>(C12)^2/C14</f>
-        <v>0.12321</v>
+        <v>8.2139999999999991E-2</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -1086,7 +1090,7 @@
       </c>
       <c r="C17">
         <f>((C11*C16))/C15</f>
-        <v>2.3600809220030837E-6</v>
+        <v>3.5401213830046256E-6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,7 +1102,7 @@
       </c>
       <c r="C18">
         <f>C17*C11</f>
-        <v>6.5988218951425435E-7</v>
+        <v>9.8982328427138153E-7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,7 +1114,7 @@
       </c>
       <c r="C19">
         <f>C18*8400</f>
-        <v>5.5430103919197364E-3</v>
+        <v>8.3145155878796041E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,7 +1126,7 @@
       </c>
       <c r="C20">
         <f>C19*C5</f>
-        <v>0.1662903117575921</v>
+        <v>0.24943546763638813</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,7 +1273,7 @@
       </c>
       <c r="C37">
         <f>C34+C33+C30+C28+C20</f>
-        <v>8.8161580438538429</v>
+        <v>8.8993031997326391</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,7 +1285,7 @@
       </c>
       <c r="C38" s="13">
         <f>C20/C37</f>
-        <v>1.8861993050762159E-2</v>
+        <v>2.8028651461597789E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Heating_Element_Cost/HeatingElementCostEstimate.xlsx
+++ b/Heating_Element_Cost/HeatingElementCostEstimate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Heating_Element_Cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Heating_Element_Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{2AB1BE43-61F4-4C7B-8CB2-E9B8FC65C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4E7FF81-6C75-4EE8-BDE2-49C8E5D42E0F}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{2AB1BE43-61F4-4C7B-8CB2-E9B8FC65C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{128C3DE4-E432-418A-985A-0932C310A482}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{CB1A8A0D-9D97-4379-8165-4BCA07248889}"/>
+    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{CB1A8A0D-9D97-4379-8165-4BCA07248889}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1049,7 +1045,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="4">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
@@ -1064,7 +1060,7 @@
       </c>
       <c r="C15">
         <f>(C12)^2/C14</f>
-        <v>8.2139999999999991E-2</v>
+        <v>8.2085276482345093E-2</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -1090,7 +1086,7 @@
       </c>
       <c r="C17">
         <f>((C11*C16))/C15</f>
-        <v>3.5401213830046256E-6</v>
+        <v>3.5424814639266288E-6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,7 +1098,7 @@
       </c>
       <c r="C18">
         <f>C17*C11</f>
-        <v>9.8982328427138153E-7</v>
+        <v>9.9048316646089584E-7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,7 +1110,7 @@
       </c>
       <c r="C19">
         <f>C18*8400</f>
-        <v>8.3145155878796041E-3</v>
+        <v>8.3200585982715243E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="C20">
         <f>C19*C5</f>
-        <v>0.24943546763638813</v>
+        <v>0.24960175794814574</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,7 +1269,7 @@
       </c>
       <c r="C37">
         <f>C34+C33+C30+C28+C20</f>
-        <v>8.8993031997326391</v>
+        <v>8.899469490044396</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1285,7 +1281,7 @@
       </c>
       <c r="C38" s="13">
         <f>C20/C37</f>
-        <v>2.8028651461597789E-2</v>
+        <v>2.8046813153005209E-2</v>
       </c>
     </row>
   </sheetData>
